--- a/완료폴더/2023-05-23/결과/2-이한솔-2023-05-17.xlsx
+++ b/완료폴더/2023-05-23/결과/2-이한솔-2023-05-17.xlsx
@@ -2041,7 +2041,7 @@
       <row>102</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4905375" cy="3667125"/>
+    <ext cx="2971800" cy="2638425"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="E15" s="253" t="inlineStr">
         <is>
-          <t>7kwkW</t>
+          <t>7kw</t>
         </is>
       </c>
       <c r="F15" s="239" t="n"/>
